--- a/data/trans_dic/P22$concerEmp-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P22$concerEmp-Edad-trans_dic.xlsx
@@ -697,7 +697,7 @@
         <v>0.004611420168612232</v>
       </c>
       <c r="N4" s="5" t="n">
-        <v>0.005605754507528213</v>
+        <v>0.005605754507528212</v>
       </c>
     </row>
     <row r="5">
@@ -708,7 +708,7 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.01655317343746161</v>
+        <v>0.01560128231962873</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0</v>
@@ -732,13 +732,13 @@
         <v>0</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.008810817891212294</v>
+        <v>0.008698587956035836</v>
       </c>
       <c r="L5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.0001450146827082018</v>
+        <v>0.001258458513021386</v>
       </c>
       <c r="N5" s="5" t="n">
         <v>0</v>
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.04922281687709282</v>
+        <v>0.04975501955589946</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01173329080786879</v>
+        <v>0.009377070521423194</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.02283742193081301</v>
+        <v>0.01973713686203977</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.0364816266633773</v>
+        <v>0.02792593139200598</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.01071806900209714</v>
+        <v>0.01072439948690503</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.01277312448902602</v>
+        <v>0.01185231561450823</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.01299034187680741</v>
+        <v>0.01286717201471642</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.02369606969709915</v>
+        <v>0.02556411703783177</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.02690821172781414</v>
+        <v>0.02548563114433404</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.007030491917460673</v>
+        <v>0.006978332655490758</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.01356055200354659</v>
+        <v>0.01285207573295206</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.02110405257414667</v>
+        <v>0.01909206471940739</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.01824220487684989</v>
+        <v>0.01861114094329494</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.007196247717156494</v>
+        <v>0.007319589951327957</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.002813263426826239</v>
+        <v>0.002809833473752457</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.007916141994445704</v>
+        <v>0.007796770267850931</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.005330209701749631</v>
+        <v>0.006187241232514689</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.003534313989577319</v>
+        <v>0.003217174213832031</v>
       </c>
       <c r="I8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.001746652193837254</v>
+        <v>0</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01440301566449984</v>
+        <v>0.01503194518625026</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.00718626361426519</v>
+        <v>0.007233769033924264</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.002606369917027222</v>
+        <v>0.002417055617296426</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.006484796528061463</v>
+        <v>0.006268591950560535</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.04324862762910071</v>
+        <v>0.0431860222373753</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.02608452779684275</v>
+        <v>0.02499464726245109</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.02430146876985123</v>
+        <v>0.02489807727626171</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04433843107468566</v>
+        <v>0.04422494747895173</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02489603174388912</v>
+        <v>0.02446181424315462</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.01943747906694385</v>
+        <v>0.01901613292191299</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.01101010478399238</v>
+        <v>0.01095941392535527</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01835504322720342</v>
+        <v>0.01698049984532458</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.03090877494074157</v>
+        <v>0.03118274895688456</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.01994453467367921</v>
+        <v>0.01999483027320398</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.01437555944975954</v>
+        <v>0.01410371037634052</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.02529919066658225</v>
+        <v>0.02496419542589723</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02157742103261294</v>
+        <v>0.02211137920226861</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.008730223072752424</v>
+        <v>0.008719184383355515</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.002989975132545551</v>
+        <v>0.002867573972118743</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.00962387214862514</v>
+        <v>0.01096469536784287</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.004428332179018603</v>
+        <v>0.004431025851553811</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.001357905744866798</v>
+        <v>0.001360799976834786</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.002636806105210883</v>
+        <v>0.002680692807803547</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.002362984183059077</v>
+        <v>0.002353501552958162</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.01404938012431053</v>
+        <v>0.01443954740123178</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.00611304784765941</v>
+        <v>0.006198295098809156</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.004021068511745877</v>
+        <v>0.004109339532624392</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.007828101677751293</v>
+        <v>0.00796852812225657</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.04928521686205122</v>
+        <v>0.0506753333772996</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02709631589047512</v>
+        <v>0.02790885993306594</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.02014379806695175</v>
+        <v>0.02012866419536623</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.03577242698918609</v>
+        <v>0.03662392260638569</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.01920667767329185</v>
+        <v>0.02008804372421917</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.01164094631686437</v>
+        <v>0.01184623107053431</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.01437021085981337</v>
+        <v>0.01549029962424554</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.01367000171667814</v>
+        <v>0.01352717367586171</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.02984228554302231</v>
+        <v>0.03015227335506686</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.01709740194838064</v>
+        <v>0.01694212256993237</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.01415683993649056</v>
+        <v>0.01445401720043388</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.02073091905411351</v>
+        <v>0.02236737020989759</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.009838509410082319</v>
+        <v>0.009583134576823667</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.007524379063745455</v>
+        <v>0.008186484033295308</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.001534629849385128</v>
+        <v>0.001527053542410468</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.009656475982344006</v>
+        <v>0.009338983241663823</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.001553916092486413</v>
+        <v>0.001565598974584621</v>
       </c>
       <c r="H14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0015341345190597</v>
+        <v>0.001537485717937112</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.006940879529334029</v>
+        <v>0.00702022511383369</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.007300654793670966</v>
+        <v>0.006485724965994038</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.005312066377238962</v>
+        <v>0.005385775277661173</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.001892619440148088</v>
+        <v>0.002187688977059139</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.01020390031048844</v>
+        <v>0.01062769588624204</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.03645060576788112</v>
+        <v>0.0365484485106865</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.03652499901206035</v>
+        <v>0.03606401308892331</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.01588634815596267</v>
+        <v>0.01522069974504488</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.03479825824367166</v>
+        <v>0.03223293759276971</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01760885526464543</v>
+        <v>0.01835714751646642</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.01147210640436623</v>
+        <v>0.009913285247220105</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.01272442221567384</v>
+        <v>0.01357832757861497</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02175583654057667</v>
+        <v>0.02114727015587432</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.02224492389007425</v>
+        <v>0.02217587350137134</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.02112326446869003</v>
+        <v>0.02165934124699958</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.01084322581858149</v>
+        <v>0.01110633462637014</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.02386576065291441</v>
+        <v>0.02553384946214088</v>
       </c>
     </row>
     <row r="16">
@@ -1229,7 +1229,7 @@
         <v>0.004457820955081186</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.008583094884822898</v>
+        <v>0.008583094884822902</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.006194312213834805</v>
@@ -1252,16 +1252,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.004364399007187904</v>
+        <v>0.00489524651532702</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.002349563457889881</v>
+        <v>0.00236326625554959</v>
       </c>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.009716492474759813</v>
+        <v>0.01016096155710214</v>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
@@ -1271,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.004237178531636402</v>
+        <v>0.003975877660056276</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.002419842055107399</v>
+        <v>0.002403516698769028</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.001206169194411052</v>
+        <v>0.001213115113512691</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.001028826262163939</v>
+        <v>0.001026319388246718</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.008524334622446061</v>
+        <v>0.008604636951679508</v>
       </c>
     </row>
     <row r="18">
@@ -1294,38 +1294,38 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.02762425571227047</v>
+        <v>0.0280541227639682</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.02038490774604342</v>
+        <v>0.02228603094170205</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.01114499669759207</v>
+        <v>0.01050328438753851</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.03379050584434594</v>
+        <v>0.03394274825301476</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.01185478419616489</v>
+        <v>0.009577084239996652</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.01536448526967887</v>
+        <v>0.01365418859620326</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.01622982174890036</v>
+        <v>0.01659472711631456</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01461138459233454</v>
+        <v>0.0135930449038135</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.01204992669408037</v>
+        <v>0.01118087354586244</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.00878784836507911</v>
+        <v>0.009444257197128937</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.02236209222186677</v>
+        <v>0.02120353539548906</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.0009820754218113853</v>
+        <v>0.0009820754218113851</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.001661529216434515</v>
@@ -1418,30 +1418,30 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02028999684465901</v>
+        <v>0.02033444384494957</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01793731743019353</v>
+        <v>0.01678744188120298</v>
       </c>
       <c r="E21" s="5" t="inlineStr"/>
       <c r="F21" s="5" t="n">
-        <v>0.01308725333700414</v>
+        <v>0.01095873817041323</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="inlineStr"/>
       <c r="I21" s="5" t="inlineStr"/>
       <c r="J21" s="5" t="n">
-        <v>0.004923610609223395</v>
+        <v>0.005935689345130905</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.008349174763374679</v>
+        <v>0.008281374519003791</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.007810979809400175</v>
+        <v>0.007844551601092441</v>
       </c>
       <c r="M21" s="5" t="inlineStr"/>
       <c r="N21" s="5" t="n">
-        <v>0.005811864236749046</v>
+        <v>0.006272030648053155</v>
       </c>
     </row>
     <row r="22">
@@ -1489,7 +1489,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.002732331128888866</v>
+        <v>0.002732331128888865</v>
       </c>
     </row>
     <row r="23">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="M23" s="5" t="inlineStr"/>
       <c r="N23" s="5" t="n">
-        <v>0.0005833975898292494</v>
+        <v>0.000583862301123066</v>
       </c>
     </row>
     <row r="24">
@@ -1531,25 +1531,25 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.02034619204742277</v>
+        <v>0.01776789170960959</v>
       </c>
       <c r="E24" s="5" t="inlineStr"/>
       <c r="F24" s="5" t="n">
-        <v>0.01897701136287348</v>
+        <v>0.01776622846733806</v>
       </c>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="inlineStr"/>
       <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="n">
-        <v>0.008094247010388066</v>
+        <v>0.008729257809929027</v>
       </c>
       <c r="K24" s="5" t="inlineStr"/>
       <c r="L24" s="5" t="n">
-        <v>0.007533180057402774</v>
+        <v>0.007018160894352535</v>
       </c>
       <c r="M24" s="5" t="inlineStr"/>
       <c r="N24" s="5" t="n">
-        <v>0.0085193465157511</v>
+        <v>0.008905223344265351</v>
       </c>
     </row>
     <row r="25">
@@ -1597,7 +1597,7 @@
         <v>0.004609368116093737</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>0.0106551126435471</v>
+        <v>0.01065511264354709</v>
       </c>
     </row>
     <row r="26">
@@ -1608,40 +1608,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01747109649759849</v>
+        <v>0.01758836350316591</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.008311914374918064</v>
+        <v>0.007977928802253721</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.003220886151698827</v>
+        <v>0.003220187061053143</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.01082612728360482</v>
+        <v>0.01086901119641544</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.003285782435566245</v>
+        <v>0.003426860698334333</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.001927806807992076</v>
+        <v>0.001950002685711841</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.001854971644345505</v>
+        <v>0.001948241373479634</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.004669995825543813</v>
+        <v>0.004692614821932769</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.01115108580643703</v>
+        <v>0.01129066042549608</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.005648231148541239</v>
+        <v>0.005670883796436242</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.003087086488226063</v>
+        <v>0.003188691350761366</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.008327012584841753</v>
+        <v>0.008079650986775846</v>
       </c>
     </row>
     <row r="27">
@@ -1652,40 +1652,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.02827783261126601</v>
+        <v>0.02794237233392633</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.01617548512124959</v>
+        <v>0.01583695097245395</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.00933038880415319</v>
+        <v>0.009375651668603633</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02016722027223251</v>
+        <v>0.02021345184349523</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.008649676530624028</v>
+        <v>0.008369756652897868</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.005905364528320568</v>
+        <v>0.006077675359582728</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.006012708260401874</v>
+        <v>0.005943768694964399</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.009157651861230146</v>
+        <v>0.009438558716016378</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01712282663454348</v>
+        <v>0.0168968003198793</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.01002845098127885</v>
+        <v>0.01017883450505854</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.006631147953833093</v>
+        <v>0.006703680056338122</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.01342514743258105</v>
+        <v>0.01347898649604896</v>
       </c>
     </row>
     <row r="28">
@@ -1959,7 +1959,7 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8163</v>
+        <v>7694</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>0</v>
@@ -1983,13 +1983,13 @@
         <v>0</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>8464</v>
+        <v>8356</v>
       </c>
       <c r="L6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>118</v>
+        <v>1024</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0</v>
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24274</v>
+        <v>24536</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5317</v>
+        <v>4249</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>9537</v>
+        <v>8243</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>14877</v>
+        <v>11388</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>5011</v>
+        <v>5014</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>5495</v>
+        <v>5099</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>5141</v>
+        <v>5092</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>8590</v>
+        <v>9267</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>25849</v>
+        <v>24482</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>6211</v>
+        <v>6165</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>11030</v>
+        <v>10454</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>16257</v>
+        <v>14707</v>
       </c>
     </row>
     <row r="8">
@@ -2139,40 +2139,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13371</v>
+        <v>13642</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>4944</v>
+        <v>5029</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1661</v>
+        <v>1659</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3775</v>
+        <v>3718</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>3334</v>
+        <v>3870</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>2157</v>
+        <v>1963</v>
       </c>
       <c r="I10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>873</v>
+        <v>0</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>19566</v>
+        <v>20421</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>9323</v>
+        <v>9385</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>3003</v>
+        <v>2785</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>6335</v>
+        <v>6124</v>
       </c>
     </row>
     <row r="11">
@@ -2183,40 +2183,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>31700</v>
+        <v>31655</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>17922</v>
+        <v>17173</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>14350</v>
+        <v>14702</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>21145</v>
+        <v>21090</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>15572</v>
+        <v>15301</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>11862</v>
+        <v>11605</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>6184</v>
+        <v>6156</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>9178</v>
+        <v>8491</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>41989</v>
+        <v>42361</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>25875</v>
+        <v>25940</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>16563</v>
+        <v>16250</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>24715</v>
+        <v>24388</v>
       </c>
     </row>
     <row r="12">
@@ -2319,40 +2319,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>13781</v>
+        <v>14122</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>5953</v>
+        <v>5945</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1998</v>
+        <v>1916</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>5975</v>
+        <v>6807</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>3054</v>
+        <v>3056</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1744</v>
+        <v>1773</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1470</v>
+        <v>1464</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>18663</v>
+        <v>19182</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>8514</v>
+        <v>8632</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>5346</v>
+        <v>5464</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>9730</v>
+        <v>9905</v>
       </c>
     </row>
     <row r="15">
@@ -2363,40 +2363,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>31477</v>
+        <v>32365</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18476</v>
+        <v>19030</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>13459</v>
+        <v>13449</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>22209</v>
+        <v>22737</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13248</v>
+        <v>13856</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8275</v>
+        <v>8421</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>9504</v>
+        <v>10245</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>8505</v>
+        <v>8416</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>39643</v>
+        <v>40055</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>23812</v>
+        <v>23595</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>18822</v>
+        <v>19217</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>25768</v>
+        <v>27802</v>
       </c>
     </row>
     <row r="16">
@@ -2499,40 +2499,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5096</v>
+        <v>4964</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>4625</v>
+        <v>5032</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>6765</v>
+        <v>6543</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>799</v>
+        <v>805</v>
       </c>
       <c r="H18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>994</v>
+        <v>996</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5115</v>
+        <v>5173</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>7538</v>
+        <v>6696</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>6538</v>
+        <v>6629</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>2449</v>
+        <v>2831</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>14668</v>
+        <v>15277</v>
       </c>
     </row>
     <row r="19">
@@ -2543,40 +2543,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>18882</v>
+        <v>18933</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>22449</v>
+        <v>22166</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>10263</v>
+        <v>9833</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>24380</v>
+        <v>22583</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>9059</v>
+        <v>9444</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>7069</v>
+        <v>6109</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>8247</v>
+        <v>8800</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>16032</v>
+        <v>15583</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>22967</v>
+        <v>22896</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>25999</v>
+        <v>26659</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>14033</v>
+        <v>14373</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>34307</v>
+        <v>36705</v>
       </c>
     </row>
     <row r="20">
@@ -2679,16 +2679,16 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1688</v>
+        <v>1893</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1009</v>
+        <v>1015</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>5921</v>
+        <v>6192</v>
       </c>
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="n">
@@ -2698,19 +2698,19 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>2577</v>
+        <v>2418</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1911</v>
+        <v>1898</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>10378</v>
+        <v>10476</v>
       </c>
     </row>
     <row r="23">
@@ -2721,38 +2721,38 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>10683</v>
+        <v>10849</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>8754</v>
+        <v>9570</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>5303</v>
+        <v>4997</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>20590</v>
+        <v>20683</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>5309</v>
+        <v>4289</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>7634</v>
+        <v>6784</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>9870</v>
+        <v>10092</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>11541</v>
+        <v>10736</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>10571</v>
+        <v>9808</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>8547</v>
+        <v>9186</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>27225</v>
+        <v>25815</v>
       </c>
     </row>
     <row r="24">
@@ -2889,30 +2889,30 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5937</v>
+        <v>5950</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5557</v>
+        <v>5201</v>
       </c>
       <c r="E27" s="6" t="inlineStr"/>
       <c r="F27" s="6" t="n">
-        <v>5328</v>
+        <v>4461</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="inlineStr"/>
       <c r="I27" s="6" t="inlineStr"/>
       <c r="J27" s="6" t="n">
-        <v>2162</v>
+        <v>2607</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>5306</v>
+        <v>5263</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>5185</v>
+        <v>5207</v>
       </c>
       <c r="M27" s="6" t="inlineStr"/>
       <c r="N27" s="6" t="n">
-        <v>4918</v>
+        <v>5308</v>
       </c>
     </row>
     <row r="28">
@@ -3046,25 +3046,25 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>5084</v>
+        <v>4439</v>
       </c>
       <c r="E31" s="6" t="inlineStr"/>
       <c r="F31" s="6" t="n">
-        <v>5887</v>
+        <v>5511</v>
       </c>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="inlineStr"/>
       <c r="I31" s="6" t="inlineStr"/>
       <c r="J31" s="6" t="n">
-        <v>3761</v>
+        <v>4056</v>
       </c>
       <c r="K31" s="6" t="inlineStr"/>
       <c r="L31" s="6" t="n">
-        <v>4812</v>
+        <v>4483</v>
       </c>
       <c r="M31" s="6" t="inlineStr"/>
       <c r="N31" s="6" t="n">
-        <v>6601</v>
+        <v>6900</v>
       </c>
     </row>
     <row r="32">
@@ -3167,40 +3167,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>57133</v>
+        <v>57516</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>28475</v>
+        <v>27331</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>10917</v>
+        <v>10915</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>38246</v>
+        <v>38398</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>11097</v>
+        <v>11573</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>6860</v>
+        <v>6939</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>6564</v>
+        <v>6894</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>17435</v>
+        <v>17520</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>74125</v>
+        <v>75052</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>39448</v>
+        <v>39606</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>21388</v>
+        <v>22092</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>60506</v>
+        <v>58709</v>
       </c>
     </row>
     <row r="35">
@@ -3211,40 +3211,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>92472</v>
+        <v>91375</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>55414</v>
+        <v>54254</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>31625</v>
+        <v>31778</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>71246</v>
+        <v>71409</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>29211</v>
+        <v>28266</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>21013</v>
+        <v>21626</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>21277</v>
+        <v>21033</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>34190</v>
+        <v>35239</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>113821</v>
+        <v>112318</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>70040</v>
+        <v>71090</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>45942</v>
+        <v>46444</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>97550</v>
+        <v>97941</v>
       </c>
     </row>
     <row r="36">
